--- a/docs/mcode-r4/onco-core-PrimaryCancerCondition.xlsx
+++ b/docs/mcode-r4/onco-core-PrimaryCancerCondition.xlsx
@@ -158,7 +158,7 @@
     <t>onco-core-PrimaryCancerCondition</t>
   </si>
   <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body, abnormal cells that divide without control and can invade nearby tissues.</t>
+    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor).</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -1040,7 +1040,7 @@
     <t>Condition.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|PractitionerRole|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Patient|RelatedPerson)
 </t>
   </si>
   <si>

--- a/docs/mcode-r4/onco-core-PrimaryCancerCondition.xlsx
+++ b/docs/mcode-r4/onco-core-PrimaryCancerCondition.xlsx
@@ -350,7 +350,7 @@
     <t>dateofdiagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/obf-DateOfDiagnosis-extension}
+    <t xml:space="preserve">Extension {condition-assertedDate}
 </t>
   </si>
   <si>
@@ -851,28 +851,28 @@
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
 The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Orientation-extension}
+    <t>anatomicalorientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-AnatomicalOrientation-extension}
 </t>
   </si>
   <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+    <t>AnatomicalOrientation of the body location, if needed to distinguish from a similar location in another orientation.
 The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
@@ -888,11 +888,11 @@
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
 The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>

--- a/docs/mcode-r4/onco-core-PrimaryCancerCondition.xlsx
+++ b/docs/mcode-r4/onco-core-PrimaryCancerCondition.xlsx
@@ -158,7 +158,7 @@
     <t>onco-core-PrimaryCancerCondition</t>
   </si>
   <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor).</t>
+    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor). Cancers of uncertain origin or behavior should be documented as primary.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -782,7 +782,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/onco-core-PrimaryCancerDisorderVS</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/onco-core-PrimaryOrUncertainBehaviorCancerDisorderVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1447,7 +1447,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="77.01171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.55078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="88.51171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>54</v>
